--- a/src/main/java/org/core/test2.xlsx
+++ b/src/main/java/org/core/test2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="64" documentId="14_{2C14E00F-91C9-4F69-9806-58B7D37559DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B80F05-945D-4C6E-8126-51EC83515BC8}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="14_{2C14E00F-91C9-4F69-9806-58B7D37559DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50185171-7733-458D-A454-D9AFF9B428C5}"/>
   <bookViews>
     <workbookView xWindow="9045" yWindow="1425" windowWidth="14145" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,7 +220,23 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person17.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person18.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person19.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person20.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -518,7 +534,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -733,7 +749,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -775,7 +791,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -817,7 +833,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -859,7 +875,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0</v>
